--- a/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 24,88</t>
+          <t>11,12; 25,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 29,74</t>
+          <t>14,75; 28,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 32,53</t>
+          <t>16,97; 32,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,25; 43,97</t>
+          <t>24,68; 43,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 35,99</t>
+          <t>20,97; 36,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,74; 49,5</t>
+          <t>30,27; 50,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,4; 43,52</t>
+          <t>25,67; 43,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 55,59</t>
+          <t>41,8; 55,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,53; 28,13</t>
+          <t>17,52; 28,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,48; 37,34</t>
+          <t>24,3; 36,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,61; 35,27</t>
+          <t>24,21; 35,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,07; 47,68</t>
+          <t>36,13; 47,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,52</t>
+          <t>14,44; 20,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,93; 32,74</t>
+          <t>24,94; 32,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,54; 25,66</t>
+          <t>18,41; 25,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,5; 36,99</t>
+          <t>28,82; 36,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,47; 29,92</t>
+          <t>22,45; 29,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 46,4</t>
+          <t>38,54; 47,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 41,79</t>
+          <t>33,54; 41,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 44,35</t>
+          <t>34,47; 43,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 24,19</t>
+          <t>19,22; 24,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,36</t>
+          <t>32,76; 38,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,7</t>
+          <t>27,02; 32,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,42; 39,37</t>
+          <t>33,51; 39,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,55</t>
+          <t>15,71; 20,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,0; 27,68</t>
+          <t>21,72; 27,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 26,34</t>
+          <t>20,63; 26,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,37</t>
+          <t>20,65; 28,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,83</t>
+          <t>25,93; 31,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,42; 40,99</t>
+          <t>34,38; 41,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 37,28</t>
+          <t>30,95; 37,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,4; 42,7</t>
+          <t>37,38; 42,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,57; 25,44</t>
+          <t>21,48; 25,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 33,19</t>
+          <t>29,07; 33,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 30,63</t>
+          <t>26,48; 30,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 34,81</t>
+          <t>29,85; 34,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,24</t>
+          <t>13,65; 19,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,94</t>
+          <t>19,05; 25,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,26</t>
+          <t>18,31; 24,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,61</t>
+          <t>27,14; 34,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,38</t>
+          <t>27,97; 34,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,35; 42,64</t>
+          <t>35,44; 42,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,2; 34,08</t>
+          <t>26,98; 33,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,27; 64,86</t>
+          <t>37,15; 63,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 26,0</t>
+          <t>21,63; 26,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 33,35</t>
+          <t>28,49; 33,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,41; 28,05</t>
+          <t>23,51; 28,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,92; 52,43</t>
+          <t>33,92; 53,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,1</t>
+          <t>15,47; 20,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 30,18</t>
+          <t>23,9; 29,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,83; 27,37</t>
+          <t>21,61; 27,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,11</t>
+          <t>29,37; 35,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,27; 34,98</t>
+          <t>29,33; 35,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,81; 44,73</t>
+          <t>38,86; 44,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,75; 41,33</t>
+          <t>34,73; 41,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,23; 45,13</t>
+          <t>39,03; 45,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,36; 27,25</t>
+          <t>23,38; 27,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 36,87</t>
+          <t>32,61; 36,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,41; 33,78</t>
+          <t>29,35; 33,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,65; 39,91</t>
+          <t>35,52; 39,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,36; 18,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,61; 26,69</t>
+          <t>23,55; 26,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 24,42</t>
+          <t>21,58; 24,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,65</t>
+          <t>27,88; 31,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,23; 31,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,48; 41,68</t>
+          <t>38,29; 41,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,21; 36,56</t>
+          <t>33,19; 36,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,01; 47,87</t>
+          <t>40,08; 48,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,68; 24,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,65; 33,87</t>
+          <t>31,72; 33,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,08</t>
+          <t>27,97; 30,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,88; 39,55</t>
+          <t>34,9; 40,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 25,28</t>
+          <t>10,97; 25,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,75; 28,88</t>
+          <t>14,54; 28,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 32,37</t>
+          <t>17,11; 32,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 36,32</t>
+          <t>20,74; 37,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,27; 50,18</t>
+          <t>29,94; 49,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 43,81</t>
+          <t>24,41; 43,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 28,48</t>
+          <t>17,84; 27,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,3; 36,75</t>
+          <t>24,73; 37,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,21; 35,64</t>
+          <t>23,6; 35,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,24</t>
+          <t>14,19; 20,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 32,79</t>
+          <t>24,99; 33,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 25,52</t>
+          <t>18,39; 25,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,87</t>
+          <t>22,46; 30,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 47,28</t>
+          <t>38,38; 46,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 41,56</t>
+          <t>33,73; 42,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 24,12</t>
+          <t>19,35; 24,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,76; 38,49</t>
+          <t>33,02; 38,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,02; 32,48</t>
+          <t>27,06; 32,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,71; 20,97</t>
+          <t>15,67; 20,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,39</t>
+          <t>21,85; 27,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 26,19</t>
+          <t>20,55; 25,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,93; 31,67</t>
+          <t>25,59; 31,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,38; 41,14</t>
+          <t>34,5; 40,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 37,03</t>
+          <t>31,07; 37,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,48; 25,47</t>
+          <t>21,6; 25,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,07; 33,38</t>
+          <t>28,97; 33,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,48; 30,47</t>
+          <t>26,51; 30,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,5</t>
+          <t>13,64; 19,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 25,28</t>
+          <t>19,29; 25,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,36</t>
+          <t>18,56; 24,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 34,94</t>
+          <t>27,61; 35,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,44; 42,74</t>
+          <t>35,57; 42,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 33,71</t>
+          <t>27,27; 33,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,63; 26,21</t>
+          <t>21,88; 26,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,49; 33,5</t>
+          <t>28,46; 33,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,51; 28,11</t>
+          <t>23,6; 28,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,22</t>
+          <t>15,44; 20,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,9; 29,63</t>
+          <t>23,99; 29,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,61; 27,17</t>
+          <t>21,58; 27,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,33; 35,24</t>
+          <t>29,1; 35,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 44,82</t>
+          <t>38,75; 44,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,73; 41,17</t>
+          <t>34,48; 41,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 27,18</t>
+          <t>23,32; 27,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,61; 36,85</t>
+          <t>32,14; 36,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,35; 33,59</t>
+          <t>29,5; 33,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,36; 18,89</t>
+          <t>16,06; 18,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 26,78</t>
+          <t>23,74; 26,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,58; 24,4</t>
+          <t>21,55; 24,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,23; 31,32</t>
+          <t>28,02; 31,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,29; 41,79</t>
+          <t>38,31; 41,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,19; 36,54</t>
+          <t>33,29; 36,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 24,7</t>
+          <t>22,72; 24,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,72; 33,95</t>
+          <t>31,59; 33,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,97; 30,15</t>
+          <t>27,97; 30,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 25,8</t>
+          <t>10,89; 24,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 28,66</t>
+          <t>14,89; 29,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 32,79</t>
+          <t>17,26; 32,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 43,57</t>
+          <t>25,25; 43,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 37,22</t>
+          <t>20,73; 35,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,94; 49,54</t>
+          <t>30,74; 49,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,41; 43,29</t>
+          <t>25,4; 43,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,8; 55,99</t>
+          <t>41,28; 55,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,84; 27,65</t>
+          <t>17,53; 28,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 37,38</t>
+          <t>24,48; 37,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,6; 35,54</t>
+          <t>23,61; 35,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,13; 47,59</t>
+          <t>36,07; 47,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,41</t>
+          <t>14,23; 20,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,99; 33,04</t>
+          <t>24,93; 32,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,47</t>
+          <t>18,54; 25,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,82; 36,65</t>
+          <t>28,5; 36,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,46; 30,26</t>
+          <t>22,47; 29,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,38; 46,54</t>
+          <t>38,26; 46,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,73; 42,08</t>
+          <t>33,59; 41,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,47; 43,89</t>
+          <t>34,81; 44,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,35; 24,03</t>
+          <t>19,25; 24,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,02; 38,68</t>
+          <t>32,89; 38,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,06; 32,23</t>
+          <t>27,08; 32,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,51; 39,12</t>
+          <t>33,42; 39,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 20,93</t>
+          <t>15,79; 20,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,85; 27,25</t>
+          <t>22,0; 27,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 25,95</t>
+          <t>20,67; 26,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 28,57</t>
+          <t>21,0; 28,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,59; 31,77</t>
+          <t>25,79; 31,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,5; 40,95</t>
+          <t>34,42; 40,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,07; 37,26</t>
+          <t>31,09; 37,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,38; 42,7</t>
+          <t>37,4; 42,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,6; 25,53</t>
+          <t>21,57; 25,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,97; 33,23</t>
+          <t>28,98; 33,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,51; 30,76</t>
+          <t>26,57; 30,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,85; 34,95</t>
+          <t>29,63; 34,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 19,57</t>
+          <t>13,59; 19,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 25,76</t>
+          <t>19,45; 25,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,62</t>
+          <t>18,21; 24,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,14; 34,46</t>
+          <t>27,47; 34,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,61; 35,11</t>
+          <t>27,47; 34,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,57; 42,87</t>
+          <t>35,35; 42,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 33,9</t>
+          <t>27,2; 34,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,15; 63,49</t>
+          <t>37,27; 64,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 26,45</t>
+          <t>21,6; 26,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,46; 33,46</t>
+          <t>28,24; 33,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 28,32</t>
+          <t>23,41; 28,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,92; 53,36</t>
+          <t>33,92; 52,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,02</t>
+          <t>15,58; 20,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,97</t>
+          <t>23,91; 30,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 27,49</t>
+          <t>21,83; 27,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,37; 35,52</t>
+          <t>29,13; 35,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,1; 35,17</t>
+          <t>29,27; 34,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,75; 44,55</t>
+          <t>38,81; 44,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,48; 41,03</t>
+          <t>34,75; 41,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,03; 45,05</t>
+          <t>39,23; 45,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,32; 27,37</t>
+          <t>23,36; 27,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,14; 36,78</t>
+          <t>32,5; 36,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,5; 33,75</t>
+          <t>29,41; 33,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,52; 39,73</t>
+          <t>35,65; 39,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,9</t>
+          <t>16,23; 18,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,74; 26,76</t>
+          <t>23,61; 26,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,55; 24,43</t>
+          <t>21,54; 24,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,88; 31,5</t>
+          <t>27,98; 31,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,02; 31,28</t>
+          <t>28,31; 31,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,31; 41,72</t>
+          <t>38,48; 41,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,56</t>
+          <t>33,21; 36,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,08; 48,64</t>
+          <t>40,01; 47,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,72; 24,78</t>
+          <t>22,64; 24,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,59; 33,9</t>
+          <t>31,65; 33,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,97; 30,13</t>
+          <t>27,94; 30,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,9; 40,3</t>
+          <t>34,88; 39,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>36,44%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 24,88</t>
+          <t>14,46; 19,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 29,74</t>
+          <t>24,03; 31,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 32,53</t>
+          <t>19,25; 25,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,25; 43,97</t>
+          <t>28,53; 36,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 35,99</t>
+          <t>23,18; 29,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,74; 49,5</t>
+          <t>38,14; 45,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,4; 43,52</t>
+          <t>33,02; 40,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 55,59</t>
+          <t>32,25; 44,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,53; 28,13</t>
+          <t>19,58; 23,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,48; 37,34</t>
+          <t>32,01; 37,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,61; 35,27</t>
+          <t>27,15; 32,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,07; 47,68</t>
+          <t>32,24; 39,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,52</t>
+          <t>15,79; 20,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,93; 32,74</t>
+          <t>22,0; 27,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,54; 25,66</t>
+          <t>20,67; 26,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,5; 36,99</t>
+          <t>10,85; 27,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,47; 29,92</t>
+          <t>25,79; 31,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 46,4</t>
+          <t>34,42; 40,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 41,79</t>
+          <t>31,09; 37,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 44,35</t>
+          <t>37,68; 42,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 24,19</t>
+          <t>21,57; 25,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,36</t>
+          <t>28,98; 33,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,7</t>
+          <t>26,57; 30,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,42; 39,37</t>
+          <t>19,88; 33,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>41,83%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,55</t>
+          <t>13,59; 19,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,0; 27,68</t>
+          <t>19,45; 25,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 26,34</t>
+          <t>18,21; 24,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,37</t>
+          <t>26,96; 34,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,83</t>
+          <t>27,47; 34,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,42; 40,99</t>
+          <t>35,35; 42,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 37,28</t>
+          <t>27,2; 34,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,4; 42,7</t>
+          <t>35,13; 73,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,57; 25,44</t>
+          <t>21,6; 26,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 33,19</t>
+          <t>28,24; 33,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 30,63</t>
+          <t>23,41; 28,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 34,81</t>
+          <t>32,79; 61,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>36,27%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,24</t>
+          <t>15,58; 20,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,94</t>
+          <t>23,91; 30,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,26</t>
+          <t>21,83; 27,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,61</t>
+          <t>28,78; 35,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,38</t>
+          <t>29,27; 34,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,35; 42,64</t>
+          <t>38,81; 44,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,2; 34,08</t>
+          <t>34,75; 41,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,27; 64,86</t>
+          <t>32,2; 43,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 26,0</t>
+          <t>23,36; 27,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 33,35</t>
+          <t>32,5; 36,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,41; 28,05</t>
+          <t>29,41; 33,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,92; 52,43</t>
+          <t>32,29; 38,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>35,53%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,1</t>
+          <t>16,23; 18,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 30,18</t>
+          <t>23,61; 26,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,83; 27,37</t>
+          <t>21,54; 24,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,11</t>
+          <t>21,41; 30,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,27; 34,98</t>
+          <t>28,31; 31,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,81; 44,73</t>
+          <t>38,48; 41,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,75; 41,33</t>
+          <t>33,21; 36,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,23; 45,13</t>
+          <t>38,53; 52,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,36; 27,25</t>
+          <t>22,64; 24,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 36,87</t>
+          <t>31,65; 33,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,41; 33,78</t>
+          <t>27,94; 30,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,65; 39,91</t>
+          <t>31,99; 40,93</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,46%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,26%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>22,95%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>40,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>42,34%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23,72%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>32,77%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>29,01%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>36,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,23; 18,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>23,61; 26,69</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>21,54; 24,42</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>27,98; 31,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>28,31; 31,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>38,48; 41,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>33,21; 36,56</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>40,01; 47,87</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>22,64; 24,8</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>31,65; 33,87</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>27,94; 30,08</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>34,88; 39,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,89</t>
+          <t>14,32; 19,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,05</t>
+          <t>24,27; 31,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,25; 25,98</t>
+          <t>19,34; 25,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,53; 36,55</t>
+          <t>28,84; 35,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 29,57</t>
+          <t>23,0; 29,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,14; 45,64</t>
+          <t>37,87; 45,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,02; 40,28</t>
+          <t>32,96; 40,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,25; 44,19</t>
+          <t>32,15; 44,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,58; 23,86</t>
+          <t>19,53; 23,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,01; 37,3</t>
+          <t>32,26; 37,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 32,23</t>
+          <t>27,17; 32,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,24; 39,15</t>
+          <t>31,68; 39,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,55</t>
+          <t>15,68; 20,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,0; 27,68</t>
+          <t>21,88; 27,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 26,34</t>
+          <t>20,68; 25,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 27,16</t>
+          <t>11,52; 27,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,83</t>
+          <t>26,06; 31,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,42; 40,99</t>
+          <t>34,62; 40,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,09; 37,28</t>
+          <t>30,93; 37,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,68; 42,91</t>
+          <t>37,79; 43,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 25,44</t>
+          <t>21,5; 25,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 33,19</t>
+          <t>29,14; 33,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 30,63</t>
+          <t>26,45; 30,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 33,89</t>
+          <t>19,93; 33,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,24</t>
+          <t>13,74; 19,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,94</t>
+          <t>18,92; 25,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,26</t>
+          <t>18,14; 24,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 34,25</t>
+          <t>26,67; 34,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,38</t>
+          <t>27,81; 34,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,35; 42,64</t>
+          <t>35,31; 42,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,2; 34,08</t>
+          <t>27,07; 34,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,13; 73,88</t>
+          <t>35,43; 72,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,6; 26,0</t>
+          <t>21,42; 26,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,24; 33,35</t>
+          <t>28,45; 33,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,41; 28,05</t>
+          <t>23,67; 28,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,79; 61,57</t>
+          <t>32,7; 62,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,1</t>
+          <t>15,45; 20,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 30,18</t>
+          <t>23,65; 29,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 27,37</t>
+          <t>21,88; 27,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,78; 35,03</t>
+          <t>28,85; 35,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,27; 34,98</t>
+          <t>29,39; 35,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,81; 44,73</t>
+          <t>38,53; 44,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 41,33</t>
+          <t>34,76; 40,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,2; 43,82</t>
+          <t>31,98; 43,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,36; 27,25</t>
+          <t>23,35; 27,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,5; 36,87</t>
+          <t>32,32; 36,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,41; 33,78</t>
+          <t>29,32; 33,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,29; 38,66</t>
+          <t>31,59; 38,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,13; 18,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,61; 26,69</t>
+          <t>23,8; 26,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,54; 24,42</t>
+          <t>21,53; 24,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,41; 30,56</t>
+          <t>22,24; 30,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,15; 31,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,48; 41,68</t>
+          <t>38,38; 41,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,21; 36,56</t>
+          <t>33,07; 36,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,53; 52,07</t>
+          <t>38,68; 54,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,7; 24,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,65; 33,87</t>
+          <t>31,64; 34,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,08</t>
+          <t>27,92; 30,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,99; 40,93</t>
+          <t>32,06; 41,87</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119148</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>194070</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>150883</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>204999</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>181591</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>293294</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>248362</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>290915</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>300739</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>487364</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>399245</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>495914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>99360; 137739</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>170744; 220734</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>130477; 172032</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>183236; 228353</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>158317; 204352</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>263997; 319647</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>221785; 274957</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>233178; 322430</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>269920; 330373</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>451868; 529112</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>366157; 432061</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>431118; 532311</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>174607</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>249788</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>237712</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>247304</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>278239</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>387592</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>353793</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>386266</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>452845</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>637381</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>591505</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>633571</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>150857; 200015</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>222744; 283703</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>211440; 265178</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>137471; 324948</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>252325; 308244</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>357388; 419581</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>322572; 386639</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>362320; 415260</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>414917; 490756</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>597362; 682436</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>546383; 631692</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>428793; 727598</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>111142</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>168468</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>213022</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>213388</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>303691</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>237976</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>472150</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>324530</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>472159</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>398495</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>685172</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>93243; 130959</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>143306; 193395</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>137805; 183666</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>187919; 241275</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>190180; 237346</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>274419; 332069</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>212497; 269063</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>330669; 680252</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>291802; 354440</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>436636; 511089</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>365545; 439158</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>535607; 1015749</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>167204</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>253236</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>229852</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>296006</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>333296</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>438900</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>393704</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>437336</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>500500</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>692136</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>623557</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>733342</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>145591; 190982</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>224157; 280676</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>205142; 255703</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>267430; 326391</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>305294; 364164</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>405249; 471501</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>362791; 426227</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>350198; 476431</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>462434; 542940</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>646286; 736653</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>580989; 669621</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>638683; 783227</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>572101</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>865562</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>778966</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>961331</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1006514</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1423478</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1233836</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1586668</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1578614</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2289040</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2012802</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2547999</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>528509; 612482</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>815615; 920105</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>730904; 829383</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>769346; 1057510</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>951145; 1064005</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1365655; 1482575</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1172285; 1289757</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1435776; 2015906</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1510894; 1648760</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2210371; 2375709</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1937437; 2091778</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2299674; 3002654</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>